--- a/Test Data/Printout Data/Variables.xlsx
+++ b/Test Data/Printout Data/Variables.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg\OneDrive - Queen's University\Python\Projects\EclipseRelated\PlanEvaluation\Test Data\Printout Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_DE130BD1D66E607F3BA5E3CE813341BCBA2F07BA" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="360" windowWidth="27555" windowHeight="12045"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,15 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -622,7 +636,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -663,6 +677,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1374,7 +1391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1407,9 +1424,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1442,6 +1476,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1617,11 +1668,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Test Data/Printout Data/Variables.xlsx
+++ b/Test Data/Printout Data/Variables.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg\OneDrive - Queen's University\Python\Projects\EclipseRelated\PlanEvaluation\Test Data\Printout Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_DE130BD1D66E607F3BA5E3CE813341BCBA2F07BA" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_DE130BD1D66E607F3BA5E3CE813341BCBA2F07BA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{541EAE70-526E-489A-B2F1-23F1E3F5A0AD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
+    <sheet name="Variable Mapping" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="356">
   <si>
     <t xml:space="preserve"> $AlgOptionValue</t>
   </si>
@@ -631,13 +632,481 @@
   </si>
   <si>
     <t xml:space="preserve"> $WedgeType</t>
+  </si>
+  <si>
+    <t>PatientLastName</t>
+  </si>
+  <si>
+    <t>Virt Sim</t>
+  </si>
+  <si>
+    <t>PatientId</t>
+  </si>
+  <si>
+    <t>field_name</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>PlanId</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>PYVirtSimTest</t>
+  </si>
+  <si>
+    <t>PatientFirstName</t>
+  </si>
+  <si>
+    <t>Test Plans</t>
+  </si>
+  <si>
+    <t>ImageId</t>
+  </si>
+  <si>
+    <t>RefPoints</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>ImageName</t>
+  </si>
+  <si>
+    <t>RefPointId</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>FieldId</t>
+  </si>
+  <si>
+    <t>PatientSex</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>ImageUserOrigin</t>
+  </si>
+  <si>
+    <t>FieldDose</t>
+  </si>
+  <si>
+    <t>Dose</t>
+  </si>
+  <si>
+    <t>FieldName</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>gsal</t>
+  </si>
+  <si>
+    <t>PlanModificationDate</t>
+  </si>
+  <si>
+    <t>RefPointType</t>
+  </si>
+  <si>
+    <t>FieldMachineId</t>
+  </si>
+  <si>
+    <t>Machine</t>
+  </si>
+  <si>
+    <t>CourseId</t>
+  </si>
+  <si>
+    <t>AirGap2</t>
+  </si>
+  <si>
+    <t>IsPlanModified</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>StructureId</t>
+  </si>
+  <si>
+    <t>FieldRefPointSSD</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>FieldMachineModel</t>
+  </si>
+  <si>
+    <t>AG30N6XF20</t>
+  </si>
+  <si>
+    <t>IsAllMUperGyValid</t>
+  </si>
+  <si>
+    <t>StructureName</t>
+  </si>
+  <si>
+    <t>FieldRefPointPointDepth</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>FieldMachineScale</t>
+  </si>
+  <si>
+    <t>AirGapBase</t>
+  </si>
+  <si>
+    <t>Invalid If condition</t>
+  </si>
+  <si>
+    <t>PlanNormValue</t>
+  </si>
+  <si>
+    <t>FieldRefPointEffectiveDepth</t>
+  </si>
+  <si>
+    <t>Efective Depth</t>
+  </si>
+  <si>
+    <t>FieldEnergyMode</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>User origin DICOM offset =</t>
+  </si>
+  <si>
+    <t>PrescribedDose</t>
+  </si>
+  <si>
+    <t>RefPointX</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>FieldDoseRate</t>
+  </si>
+  <si>
+    <t>Wednesday, October 02, 2019 10</t>
+  </si>
+  <si>
+    <t>CourseIntent</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Fractions</t>
+  </si>
+  <si>
+    <t>RefPointY</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>FieldTechnique</t>
+  </si>
+  <si>
+    <t>Technique</t>
+  </si>
+  <si>
+    <t>AirGap3</t>
+  </si>
+  <si>
+    <t>RefPointZ</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>FieldMonitorUnits</t>
+  </si>
+  <si>
+    <t>Mus</t>
+  </si>
+  <si>
+    <t>PhotonAlg</t>
+  </si>
+  <si>
+    <t>AAA_10028_Golden_Beam</t>
+  </si>
+  <si>
+    <t>PlanName</t>
+  </si>
+  <si>
+    <t>AirGap 3</t>
+  </si>
+  <si>
+    <t>RefPointTotalDosePerFraction</t>
+  </si>
+  <si>
+    <t>FieldMonitorUnitsPerGy</t>
+  </si>
+  <si>
+    <t>CalculationGridSizeInCM</t>
+  </si>
+  <si>
+    <t>RefPointTotalDose</t>
+  </si>
+  <si>
+    <t>Total Dose</t>
+  </si>
+  <si>
+    <t>FieldRefDose</t>
+  </si>
+  <si>
+    <t>Field Dose</t>
+  </si>
+  <si>
+    <t>FieldNormalizationType</t>
+  </si>
+  <si>
+    <t>IsPrimaryRefPoint</t>
+  </si>
+  <si>
+    <t>FieldIMRT</t>
+  </si>
+  <si>
+    <t>HeterogeneityCorrection</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>ImageSeriesId</t>
+  </si>
+  <si>
+    <t>AirGap</t>
+  </si>
+  <si>
+    <t>RefPointPatientVolumeId</t>
+  </si>
+  <si>
+    <t>FieldSAD</t>
+  </si>
+  <si>
+    <t>SAD</t>
+  </si>
+  <si>
+    <t>ImageModality</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>FieldSSD</t>
+  </si>
+  <si>
+    <t>Field SSD</t>
+  </si>
+  <si>
+    <t>ImagingDeviceId</t>
+  </si>
+  <si>
+    <t>GE Multislice CT</t>
+  </si>
+  <si>
+    <t>FieldActualSSD</t>
+  </si>
+  <si>
+    <t>ImagingDeviceModel</t>
+  </si>
+  <si>
+    <t>LightSpeed RT16</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>PatientImagingOrientation</t>
+  </si>
+  <si>
+    <t>Head First-Supine</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>PatientTreatmentOrientation</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>PlanningCoordinateSystemName</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>FieldSymmetry</t>
+  </si>
+  <si>
+    <t>ApprovalStatus</t>
+  </si>
+  <si>
+    <t>Unapproved</t>
+  </si>
+  <si>
+    <t>FieldGantryAngle</t>
+  </si>
+  <si>
+    <t>Gantry</t>
+  </si>
+  <si>
+    <t>PlanCreator</t>
+  </si>
+  <si>
+    <t>Field Side</t>
+  </si>
+  <si>
+    <t>FieldCollimatorAngle</t>
+  </si>
+  <si>
+    <t>Collimator</t>
+  </si>
+  <si>
+    <t>PlanModifier</t>
+  </si>
+  <si>
+    <t>Thin 0</t>
+  </si>
+  <si>
+    <t>FieldTableAngle</t>
+  </si>
+  <si>
+    <t>Couch</t>
+  </si>
+  <si>
+    <t>PlanCreationDate</t>
+  </si>
+  <si>
+    <t>Wednesday, October 02, 2019 09</t>
+  </si>
+  <si>
+    <t>FieldIsocentreX</t>
+  </si>
+  <si>
+    <t>Iso X</t>
+  </si>
+  <si>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>FieldIsocentreY</t>
+  </si>
+  <si>
+    <t>Iso Y</t>
+  </si>
+  <si>
+    <t>Thin d=0, 5</t>
+  </si>
+  <si>
+    <t>FieldIsocentreZ</t>
+  </si>
+  <si>
+    <t>Iso Z</t>
+  </si>
+  <si>
+    <t>FieldNormMethod</t>
+  </si>
+  <si>
+    <t>FieldNormFactor</t>
+  </si>
+  <si>
+    <t>Norm Factor</t>
+  </si>
+  <si>
+    <t>FieldWeightFactor</t>
+  </si>
+  <si>
+    <t>Field Weight</t>
+  </si>
+  <si>
+    <t>FieldCalculationWarning</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>FieldCalculationInfo</t>
+  </si>
+  <si>
+    <t>Calculation Log</t>
+  </si>
+  <si>
+    <t>StdArcCalculationSegments</t>
+  </si>
+  <si>
+    <t>VMATFluenceResolution</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>TargetVolume</t>
+  </si>
+  <si>
+    <t>PlanNormMethod</t>
+  </si>
+  <si>
+    <t>Plan Normalization Value</t>
+  </si>
+  <si>
+    <t>MUs</t>
+  </si>
+  <si>
+    <t>PrescribedDosePercent</t>
+  </si>
+  <si>
+    <t>PrimaryRefPointId</t>
+  </si>
+  <si>
+    <t>RelativeDoseInPrimaryRefPoint</t>
+  </si>
+  <si>
+    <t>Fractionations</t>
+  </si>
+  <si>
+    <t>FractionationId</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>PrescribedDosePerFraction</t>
+  </si>
+  <si>
+    <t>DoseInPrimaryRefPoint</t>
+  </si>
+  <si>
+    <t>DosePerFractionInPrimaryRefPoint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,16 +1114,88 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor theme="7" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -662,14 +1203,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="60% - Accent3" xfId="1" builtinId="40"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1671,8 +2326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5086,4 +5741,1110 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{929C5D5A-B7CC-48FA-82B1-926012B6755C}">
+  <dimension ref="A1:P48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M1" t="s">
+        <v>201</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P1" t="str">
+        <f t="shared" ref="P1:P10" si="0">_xlfn.CONCAT("'",O1,"',")</f>
+        <v>'PatientId',</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" t="str">
+        <f>_xlfn.CONCAT("'",A2,"': ","'",B2,"',")</f>
+        <v>'field_name': 'Field',</v>
+      </c>
+      <c r="E2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G33" si="1">_xlfn.CONCAT("'",E2,"': ","'",F2,"',")</f>
+        <v>'PlanId': 'Plan',</v>
+      </c>
+      <c r="I2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" si="0"/>
+        <v>'ImageId',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="1"/>
+        <v>'Course': 'Course',</v>
+      </c>
+      <c r="I3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M3" t="s">
+        <v>207</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="0"/>
+        <v>'ImageName',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C14" si="2">_xlfn.CONCAT("'",A4,"': ","'",B4,"',")</f>
+        <v>'RefPointId': 'Point',</v>
+      </c>
+      <c r="E4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>'FieldId': 'Field',</v>
+      </c>
+      <c r="I4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J4" t="s">
+        <v>209</v>
+      </c>
+      <c r="L4" t="s">
+        <v>217</v>
+      </c>
+      <c r="M4" t="s">
+        <v>218</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="0"/>
+        <v>'ImageUserOrigin',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="2"/>
+        <v>'FieldDose': 'Dose',</v>
+      </c>
+      <c r="E5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>'FieldName': 'Field Name',</v>
+      </c>
+      <c r="I5" t="s">
+        <v>217</v>
+      </c>
+      <c r="J5" t="s">
+        <v>218</v>
+      </c>
+      <c r="L5" t="s">
+        <v>224</v>
+      </c>
+      <c r="M5" t="s">
+        <v>225</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="0"/>
+        <v>'PlanModificationDate',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>'FieldMachineId': 'Machine',</v>
+      </c>
+      <c r="I6" t="s">
+        <v>230</v>
+      </c>
+      <c r="J6" t="s">
+        <v>231</v>
+      </c>
+      <c r="L6" t="s">
+        <v>232</v>
+      </c>
+      <c r="M6" t="s">
+        <v>233</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="0"/>
+        <v>'StructureId',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="2"/>
+        <v>'FieldRefPointSSD': 'SSD',</v>
+      </c>
+      <c r="E7" t="s">
+        <v>237</v>
+      </c>
+      <c r="I7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L7" t="s">
+        <v>239</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="0"/>
+        <v>'StructureName',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="2"/>
+        <v>'FieldRefPointPointDepth': 'Depth',</v>
+      </c>
+      <c r="E8" t="s">
+        <v>243</v>
+      </c>
+      <c r="I8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J8" t="s">
+        <v>244</v>
+      </c>
+      <c r="L8" t="s">
+        <v>245</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="0"/>
+        <v>'PlanNormValue',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="2"/>
+        <v>'FieldRefPointEffectiveDepth': 'Efective Depth',</v>
+      </c>
+      <c r="E9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>'FieldEnergyMode': 'Energy',</v>
+      </c>
+      <c r="I9" t="s">
+        <v>219</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L9" t="s">
+        <v>230</v>
+      </c>
+      <c r="M9" t="s">
+        <v>231</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="0"/>
+        <v>'PrescribedDose',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="2"/>
+        <v>'RefPointX': 'X',</v>
+      </c>
+      <c r="E10" t="s">
+        <v>255</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>'FieldDoseRate': '',</v>
+      </c>
+      <c r="I10" t="s">
+        <v>226</v>
+      </c>
+      <c r="J10" t="s">
+        <v>256</v>
+      </c>
+      <c r="L10" t="s">
+        <v>257</v>
+      </c>
+      <c r="M10" t="s">
+        <v>258</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="0"/>
+        <v>'Fractions',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="2"/>
+        <v>'RefPointY': 'Y',</v>
+      </c>
+      <c r="E11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>'FieldTechnique': 'Technique',</v>
+      </c>
+      <c r="I11" t="s">
+        <v>234</v>
+      </c>
+      <c r="J11" t="s">
+        <v>264</v>
+      </c>
+      <c r="L11" t="s">
+        <v>205</v>
+      </c>
+      <c r="M11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="2"/>
+        <v>'RefPointZ': 'Z',</v>
+      </c>
+      <c r="E12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>'FieldMonitorUnits': 'Mus',</v>
+      </c>
+      <c r="I12" t="s">
+        <v>269</v>
+      </c>
+      <c r="J12" t="s">
+        <v>270</v>
+      </c>
+      <c r="L12" t="s">
+        <v>271</v>
+      </c>
+      <c r="M12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>273</v>
+      </c>
+      <c r="E13" t="s">
+        <v>274</v>
+      </c>
+      <c r="I13" t="s">
+        <v>275</v>
+      </c>
+      <c r="J13">
+        <v>0.25</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="2"/>
+        <v>'RefPointTotalDose': 'Total Dose',</v>
+      </c>
+      <c r="E14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>'FieldRefDose': 'Field Dose',</v>
+      </c>
+      <c r="I14" t="s">
+        <v>280</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>281</v>
+      </c>
+      <c r="E15" t="s">
+        <v>282</v>
+      </c>
+      <c r="I15" t="s">
+        <v>283</v>
+      </c>
+      <c r="J15" t="s">
+        <v>284</v>
+      </c>
+      <c r="L15" t="s">
+        <v>285</v>
+      </c>
+      <c r="M15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>287</v>
+      </c>
+      <c r="E16" t="s">
+        <v>288</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>'FieldSAD': 'SAD',</v>
+      </c>
+      <c r="I16" t="s">
+        <v>246</v>
+      </c>
+      <c r="J16">
+        <v>100</v>
+      </c>
+      <c r="L16" t="s">
+        <v>290</v>
+      </c>
+      <c r="M16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>292</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>'FieldSSD': 'Field SSD',</v>
+      </c>
+      <c r="I17" t="s">
+        <v>252</v>
+      </c>
+      <c r="J17">
+        <v>100</v>
+      </c>
+      <c r="L17" t="s">
+        <v>294</v>
+      </c>
+      <c r="M17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>296</v>
+      </c>
+      <c r="I18" t="s">
+        <v>259</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>297</v>
+      </c>
+      <c r="M18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" t="str">
+        <f>_xlfn.CONCAT("'",A19,"',")</f>
+        <v>'Point',</v>
+      </c>
+      <c r="E19" t="s">
+        <v>299</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>'X1': 'X1',</v>
+      </c>
+      <c r="L19" t="s">
+        <v>300</v>
+      </c>
+      <c r="M19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" ref="B20:B22" si="3">_xlfn.CONCAT("'",A20,"',")</f>
+        <v>'X',</v>
+      </c>
+      <c r="E20" t="s">
+        <v>302</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>'X2': 'X2',</v>
+      </c>
+      <c r="L20" t="s">
+        <v>303</v>
+      </c>
+      <c r="M20" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="3"/>
+        <v>'Y',</v>
+      </c>
+      <c r="E21" t="s">
+        <v>304</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>'Y1': 'Y1',</v>
+      </c>
+      <c r="L21" t="s">
+        <v>305</v>
+      </c>
+      <c r="M21" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="3"/>
+        <v>'Z',</v>
+      </c>
+      <c r="E22" t="s">
+        <v>307</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>'Y2': 'Y2',</v>
+      </c>
+      <c r="L22" t="s">
+        <v>219</v>
+      </c>
+      <c r="M22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>308</v>
+      </c>
+      <c r="L23" t="s">
+        <v>309</v>
+      </c>
+      <c r="M23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>311</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>'FieldGantryAngle': 'Gantry',</v>
+      </c>
+      <c r="L24" t="s">
+        <v>313</v>
+      </c>
+      <c r="M24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E25" t="s">
+        <v>315</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>'FieldCollimatorAngle': 'Collimator',</v>
+      </c>
+      <c r="L25" t="s">
+        <v>317</v>
+      </c>
+      <c r="M25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B26" s="12" t="str">
+        <f>LEFT(A26,FIND(" ",A26))</f>
+        <v xml:space="preserve">Thin </v>
+      </c>
+      <c r="E26" t="s">
+        <v>319</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>'FieldTableAngle': 'Couch',</v>
+      </c>
+      <c r="L26" t="s">
+        <v>321</v>
+      </c>
+      <c r="M26" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>323</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>'FieldIsocentreX': 'Iso X',</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E28" t="s">
+        <v>326</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>'FieldIsocentreY': 'Iso Y',</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="B29" s="13" t="str">
+        <f>LEFT(A29,FIND(" ",A29))</f>
+        <v xml:space="preserve">Thin </v>
+      </c>
+      <c r="E29" t="s">
+        <v>329</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>'FieldIsocentreZ': 'Iso Z',</v>
+      </c>
+      <c r="L29" t="s">
+        <v>240</v>
+      </c>
+      <c r="M29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>331</v>
+      </c>
+      <c r="L30" t="s">
+        <v>269</v>
+      </c>
+      <c r="M30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>332</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>'FieldNormFactor': 'Norm Factor',</v>
+      </c>
+      <c r="L31" t="s">
+        <v>275</v>
+      </c>
+      <c r="M31">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>334</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>'FieldWeightFactor': 'Field Weight',</v>
+      </c>
+      <c r="L32" t="s">
+        <v>280</v>
+      </c>
+      <c r="M32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>336</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>'FieldCalculationWarning': 'Warning',</v>
+      </c>
+      <c r="L33" t="s">
+        <v>283</v>
+      </c>
+      <c r="M33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" ref="B34:B45" si="4">_xlfn.CONCAT("'",A34,"',")</f>
+        <v>'Plan',</v>
+      </c>
+      <c r="E34" t="s">
+        <v>338</v>
+      </c>
+      <c r="F34" t="s">
+        <v>339</v>
+      </c>
+      <c r="L34" t="s">
+        <v>340</v>
+      </c>
+      <c r="M34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="4"/>
+        <v>'Course',</v>
+      </c>
+      <c r="L35" t="s">
+        <v>341</v>
+      </c>
+      <c r="M35" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="4"/>
+        <v>'Field',</v>
+      </c>
+      <c r="L36" t="s">
+        <v>343</v>
+      </c>
+      <c r="M36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="4"/>
+        <v>'Field Name',</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="4"/>
+        <v>'Energy',</v>
+      </c>
+      <c r="L38" t="s">
+        <v>344</v>
+      </c>
+      <c r="M38" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="4"/>
+        <v>'MUs',</v>
+      </c>
+      <c r="L39" t="s">
+        <v>347</v>
+      </c>
+      <c r="M39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="4"/>
+        <v>'Field Dose',</v>
+      </c>
+      <c r="L40" t="s">
+        <v>348</v>
+      </c>
+      <c r="M40" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="4"/>
+        <v>'SAD',</v>
+      </c>
+      <c r="L41" t="s">
+        <v>349</v>
+      </c>
+      <c r="M41" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="4"/>
+        <v>'Field SSD',</v>
+      </c>
+      <c r="L42" t="s">
+        <v>350</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="4"/>
+        <v>'Iso X',</v>
+      </c>
+      <c r="L43" t="s">
+        <v>351</v>
+      </c>
+      <c r="M43" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="4"/>
+        <v>'Norm Factor',</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="M44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="4"/>
+        <v>'Field Weight',</v>
+      </c>
+      <c r="L45" t="s">
+        <v>353</v>
+      </c>
+      <c r="M45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L46" t="s">
+        <v>354</v>
+      </c>
+      <c r="M46" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L47" t="s">
+        <v>355</v>
+      </c>
+      <c r="M47" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L48" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>